--- a/1 - code breaking/KeysFürBits.xlsx
+++ b/1 - code breaking/KeysFürBits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludwi\Documents\GitHub\security-lab-ss2022-ludwig-ettner\1 - code breaking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB33D2E4-859D-49B5-9EA2-9A011E1534B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFD253A-3740-4A26-93DA-0872AA7F112E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-8175" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
   <si>
     <t>Maske</t>
   </si>
@@ -120,7 +120,10 @@
     <t>h</t>
   </si>
   <si>
-    <t>int(14)</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -605,13 +608,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="135" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -632,7 +635,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>14</v>
       </c>
@@ -657,36 +660,36 @@
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -715,7 +718,7 @@
       </c>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -744,7 +747,7 @@
       </c>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -771,7 +774,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -800,7 +803,7 @@
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -829,7 +832,7 @@
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -852,7 +855,7 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -881,7 +884,7 @@
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -908,7 +911,7 @@
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -933,7 +936,7 @@
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -962,7 +965,7 @@
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -989,7 +992,7 @@
       <c r="L14" s="27"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1018,7 +1021,7 @@
       </c>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1045,7 +1048,7 @@
       </c>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1072,7 +1075,7 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1099,7 +1102,7 @@
       <c r="L18" s="27"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -1128,7 +1131,7 @@
       </c>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -1237,7 +1240,7 @@
       </c>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -1338,7 +1341,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -1363,7 +1366,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -1386,7 +1389,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -1409,7 +1412,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -1432,7 +1435,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -1455,7 +1458,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>

--- a/1 - code breaking/KeysFürBits.xlsx
+++ b/1 - code breaking/KeysFürBits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludwi\Documents\GitHub\security-lab-ss2022-ludwig-ettner\1 - code breaking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFD253A-3740-4A26-93DA-0872AA7F112E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B7833B8-5438-46AC-B560-F02FA647AF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -608,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="135" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
